--- a/SepticShockDataR.xlsx
+++ b/SepticShockDataR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptaja\Documents\R\SepticShock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\R\SepticShock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9321634B-A08F-4228-AD5D-D07955AD9E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8A620F-0D35-46B9-8F6C-51C05426756E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{83E11829-D5C2-4455-BF36-4862AD2C8E1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{83E11829-D5C2-4455-BF36-4862AD2C8E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Clinical Data" sheetId="1" r:id="rId1"/>
@@ -26,23 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="229">
   <si>
     <t>Patient ID</t>
   </si>
@@ -727,6 +716,9 @@
   <si>
     <t>CRP (mg/L)</t>
   </si>
+  <si>
+    <t>F014</t>
+  </si>
 </sst>
 </file>
 
@@ -1110,11 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7D6D6E-9B7F-4A81-8545-A266E699FC24}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8:AK14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15:AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1223,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1342,7 +1333,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="3" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1441,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1550,7 +1541,7 @@
       </c>
       <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1641,7 +1632,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1672,7 +1663,7 @@
         <v>1055.92</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6:L14" si="0">K6*(H6/100)</f>
+        <f t="shared" ref="L6:L15" si="0">K6*(H6/100)</f>
         <v>273.48328000000004</v>
       </c>
       <c r="M6" s="1"/>
@@ -1747,7 +1738,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1961,7 +1952,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2064,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2167,7 +2158,7 @@
       </c>
       <c r="AK10" s="1"/>
     </row>
-    <row r="11" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2379,7 +2370,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="13" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2595,19 +2586,113 @@
         <v>13.8</v>
       </c>
     </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>46</v>
+      </c>
+      <c r="K15" s="1">
+        <v>873.56399999999996</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>213.14961599999998</v>
+      </c>
+      <c r="M15" s="1">
+        <v>87</v>
+      </c>
+      <c r="N15" s="1">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="O15" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="P15" s="1">
+        <v>430</v>
+      </c>
+      <c r="Q15">
+        <v>7.39</v>
+      </c>
+      <c r="R15">
+        <v>22.1</v>
+      </c>
+      <c r="S15">
+        <v>108</v>
+      </c>
+      <c r="T15">
+        <v>14.4</v>
+      </c>
+      <c r="U15">
+        <v>102</v>
+      </c>
+      <c r="V15">
+        <v>97.7</v>
+      </c>
+      <c r="W15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X15">
+        <v>-1.9</v>
+      </c>
+      <c r="Y15">
+        <v>-0.9</v>
+      </c>
+      <c r="AA15">
+        <v>4.5</v>
+      </c>
+      <c r="AB15">
+        <v>145</v>
+      </c>
+      <c r="AC15">
+        <v>0.98</v>
+      </c>
+      <c r="AD15">
+        <v>120</v>
+      </c>
+      <c r="AE15">
+        <v>225</v>
+      </c>
+      <c r="AF15">
+        <v>3.4</v>
+      </c>
+      <c r="AG15">
+        <v>-100</v>
+      </c>
+      <c r="AH15">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AI15">
+        <v>24.6</v>
+      </c>
+      <c r="AJ15">
+        <v>-11.6</v>
+      </c>
+      <c r="AK15">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:D14" xr:uid="{5AFE7FF3-AE31-44CA-82BF-10DBA6B6976D}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Female"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Control"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:D14" xr:uid="{5AFE7FF3-AE31-44CA-82BF-10DBA6B6976D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK14">
     <sortCondition ref="A2:A14"/>
   </sortState>
@@ -2619,7 +2704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B317E96-AC0B-47E4-A081-0EACA59C6726}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
